--- a/src/test/resources/screenshot/screenshot.xlsx
+++ b/src/test/resources/screenshot/screenshot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\screenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{455D2C7B-37D3-4D88-9871-8E695D43D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E2288-0B2B-4F50-B787-DC2493B030C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -68,15 +68,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\xihu_\Desktop\2.json</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://task.hugang.io/login</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>wait</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>download/2.json</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -107,16 +107,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -126,31 +147,136 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -163,23 +289,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,92 +643,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="H3" s="8">
         <v>2000</v>
       </c>
     </row>

--- a/src/test/resources/screenshot/screenshot.xlsx
+++ b/src/test/resources/screenshot/screenshot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\screenshot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\screenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E2288-0B2B-4F50-B787-DC2493B030C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A5593-B05C-4412-9F5C-BD95F9DAFC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>open</t>
   </si>
@@ -29,54 +29,24 @@
   </si>
   <si>
     <t>945x1012</t>
-  </si>
-  <si>
-    <t>id=username</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>id=password</t>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>readProperties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${password}</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>screenshot</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CaseNO_${caseId}_ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TestCase</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://task.hugang.io/login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>wait</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>download/2.json</t>
+    <t>https://github.com/hugang</t>
+  </si>
+  <si>
+    <t>CaseNO_${caseId}_github</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -84,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -100,24 +70,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -281,54 +235,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,102 +585,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>14</v>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="E3" s="6">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F29628EC-E1C7-48D2-A76E-3D0697C521B1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>